--- a/lectures/9/Cross-tab worksheet.xlsx
+++ b/lectures/9/Cross-tab worksheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24575D38-F540-4A49-8DB2-99B20BF0981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B4808A-8232-4EBD-B75A-0034337B57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1617,6 +1617,562 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Descriptive analysis technique'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$A$15:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non-Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive analysis technique'!$B$15:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B259-4C85-ACD3-7D1B203D07C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1015904960"/>
+        <c:axId val="1015905376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1015904960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015905376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1015905376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015904960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>as a place to study</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>as a place to meet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>obtain material for class work</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive analysis technique'!$B$32:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BF6-4A7A-BB89-37D184D2DF1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="627509520"/>
+        <c:axId val="627517840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="627509520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627517840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="627517840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627509520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Descriptive analysis technique'!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1938,7 +2494,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2171,6 +2727,414 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="950983647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Descriptive analysis technique'!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency of library use_Recode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Descriptive analysis technique'!$A$50:$B$54</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1-2 days a week</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3-4 days a week</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5-6 days a week</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1-2 days a week</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Adam</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Beth</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Catlin</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>David</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Average</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive analysis technique'!$D$50:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33F3-4415-8C6E-F252FAA6CB50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="270787119"/>
+        <c:axId val="270786703"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Descriptive analysis technique'!$C$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Descriptive analysis technique'!$A$50:$B$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="5"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1-2 days a week</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>3-4 days a week</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>5-6 days a week</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1-2 days a week</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Adam</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Beth</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Catlin</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>David</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Average</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Descriptive analysis technique'!$C$50:$C$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-33F3-4415-8C6E-F252FAA6CB50}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="270787119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270786703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="270786703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270787119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3430,6 +4394,287 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Visualization - Descriptive 1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Visualization - Descriptive 1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honey Mustard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Poppy seed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Balsamic vinaigrette</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visualization - Descriptive 1'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6599-44B1-8842-35F6BEDA1F4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1051527759"/>
+        <c:axId val="1051532335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1051527759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1051532335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1051532335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1051527759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Visualization - Descriptive 2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3798,7 +5043,384 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visualization - Descriptive 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>South side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Visualization - Descriptive 2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honey Mustard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Poppy seed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Balsamic vinaigrette</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visualization - Descriptive 2'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30709999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8CA-4032-BD55-55E0522A23B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visualization - Descriptive 2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>West side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Visualization - Descriptive 2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honey Mustard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Poppy seed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Balsamic vinaigrette</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visualization - Descriptive 2'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.42309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25380000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8CA-4032-BD55-55E0522A23B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1061254671"/>
+        <c:axId val="1061250095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1061254671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061250095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1061250095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061254671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4199,7 +5821,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4474,562 +6096,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis technique'!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis technique'!$A$15:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Non-Business</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis technique'!$B$15:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B259-4C85-ACD3-7D1B203D07C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1015904960"/>
-        <c:axId val="1015905376"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1015904960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1015905376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1015905376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1015904960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis technique'!$B$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Median</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis technique'!$A$32:$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>as a place to study</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>as a place to meet</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>obtain material for class work</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis technique'!$B$32:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0BF6-4A7A-BB89-37D184D2DF1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="627509520"/>
-        <c:axId val="627517840"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="627509520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="627517840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="627517840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="627509520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5111,6 +6177,126 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6979,6 +8165,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -11231,6 +13926,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0120DE5-EF3B-5C01-5707-BF27F0C405D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11267,6 +13998,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B886EB1-7A72-D567-7442-A1CDFB2F7BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11634,6 +14401,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E59BF0-F305-E6E1-5AB7-6296D77CE248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12902,8 +15705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017DEE67-8F5D-4A6F-B52F-65AC81081927}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12990,7 +15793,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13048,7 +15851,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13135,7 +15938,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13184,8 +15987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC1DD1-2A5C-42C2-B90F-79217246D8D4}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
